--- a/PCE06D.xlsx
+++ b/PCE06D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4152" uniqueCount="1444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4146" uniqueCount="1442">
   <si>
     <t/>
   </si>
@@ -148,6 +148,15 @@
     <t>13</t>
   </si>
   <si>
+    <t>20140680</t>
+  </si>
+  <si>
+    <t>ZEN BAR JPN RED 4S</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>20021822</t>
   </si>
   <si>
@@ -208,18 +217,6 @@
     <t>LUX VELVET TCH 3X110</t>
   </si>
   <si>
-    <t>20136876</t>
-  </si>
-  <si>
-    <t>LUX SOAP HJB LAV 70G</t>
-  </si>
-  <si>
-    <t>20136878</t>
-  </si>
-  <si>
-    <t>LUX SOAP HJB ZTUN 70</t>
-  </si>
-  <si>
     <t>20027090</t>
   </si>
   <si>
@@ -307,9 +304,6 @@
     <t>IDM HAND SNTIZER 100</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>20100033</t>
   </si>
   <si>
@@ -1378,6 +1372,12 @@
     <t>SNSLK CRMBTH S.GL 30</t>
   </si>
   <si>
+    <t>20138022</t>
+  </si>
+  <si>
+    <t>SNSLK CRMBTH S.SL 30</t>
+  </si>
+  <si>
     <t>20054917</t>
   </si>
   <si>
@@ -1390,10 +1390,10 @@
     <t>CBD HAIR MASK 30+5G</t>
   </si>
   <si>
-    <t>20138022</t>
-  </si>
-  <si>
-    <t>SNSLK CRMBTH S.SL 30</t>
+    <t>20138911</t>
+  </si>
+  <si>
+    <t>TRSME HM KRTN.SM 30G</t>
   </si>
   <si>
     <t>20055603</t>
@@ -1531,12 +1531,6 @@
     <t>ZEN BW A.BAC SHIS480</t>
   </si>
   <si>
-    <t>20036431</t>
-  </si>
-  <si>
-    <t>LIFEBUOY BW WHT 500</t>
-  </si>
-  <si>
     <t>20036430</t>
   </si>
   <si>
@@ -1585,6 +1579,12 @@
     <t>BIORE BF RELAX 725</t>
   </si>
   <si>
+    <t>20120919</t>
+  </si>
+  <si>
+    <t>NUVO MILD PROTECT800</t>
+  </si>
+  <si>
     <t>20087202</t>
   </si>
   <si>
@@ -1603,6 +1603,12 @@
     <t>LIFEBUOY BW RED 800</t>
   </si>
   <si>
+    <t>20140968</t>
+  </si>
+  <si>
+    <t>LFBUOY COOL FRS 800</t>
+  </si>
+  <si>
     <t>20041399</t>
   </si>
   <si>
@@ -1639,12 +1645,6 @@
     <t>NUVO CAIR MERAH 800</t>
   </si>
   <si>
-    <t>20120919</t>
-  </si>
-  <si>
-    <t>NUVO MILD PROTECT800</t>
-  </si>
-  <si>
     <t>20135711</t>
   </si>
   <si>
@@ -1699,117 +1699,123 @@
     <t>LIFE/B 3IN1 ABAC 450</t>
   </si>
   <si>
+    <t>20120878</t>
+  </si>
+  <si>
+    <t>L/BUOY BW MCH&amp;ALO380</t>
+  </si>
+  <si>
+    <t>20060393</t>
+  </si>
+  <si>
+    <t>NUVO CAIR CLSC 400</t>
+  </si>
+  <si>
+    <t>20063269</t>
+  </si>
+  <si>
+    <t>NUVO CAIR NATURE 400</t>
+  </si>
+  <si>
+    <t>20114112</t>
+  </si>
+  <si>
+    <t>NUVO FRS.PRO LMN 400</t>
+  </si>
+  <si>
+    <t>20060392</t>
+  </si>
+  <si>
+    <t>NUVO CAIR CARING 400</t>
+  </si>
+  <si>
+    <t>20138658</t>
+  </si>
+  <si>
+    <t>NUVO BW HYGIENIC 400</t>
+  </si>
+  <si>
+    <t>20039727</t>
+  </si>
+  <si>
+    <t>SHINZU'I MATSU 380ML</t>
+  </si>
+  <si>
+    <t>20039728</t>
+  </si>
+  <si>
+    <t>SHINZU'I KIREI 380ML</t>
+  </si>
+  <si>
+    <t>20130653</t>
+  </si>
+  <si>
+    <t>SHINZU'I SKURA 380ML</t>
+  </si>
+  <si>
+    <t>20093101</t>
+  </si>
+  <si>
+    <t>ZEN BW A.BAC SHIS380</t>
+  </si>
+  <si>
+    <t>20135211</t>
+  </si>
+  <si>
+    <t>20138029</t>
+  </si>
+  <si>
+    <t>GIV BW SAKURA 400ML</t>
+  </si>
+  <si>
+    <t>20073514</t>
+  </si>
+  <si>
+    <t>GIV BW FLW&amp;BER 400ML</t>
+  </si>
+  <si>
+    <t>20060386</t>
+  </si>
+  <si>
+    <t>GIV BW MLB&amp;CLG PC400</t>
+  </si>
+  <si>
+    <t>20116987</t>
+  </si>
+  <si>
+    <t>GIV HIJAB TIN&amp;ZTN400</t>
+  </si>
+  <si>
+    <t>20121017</t>
+  </si>
+  <si>
+    <t>GIV BW HJB SAF&amp;N 400</t>
+  </si>
+  <si>
+    <t>20120923</t>
+  </si>
+  <si>
+    <t>K.NAT BW SP.MGNO 400</t>
+  </si>
+  <si>
+    <t>20112622</t>
+  </si>
+  <si>
+    <t>K.NAT BW COT.FLO 400</t>
+  </si>
+  <si>
+    <t>20129838</t>
+  </si>
+  <si>
+    <t>K.NAT BW JJ LEMON400</t>
+  </si>
+  <si>
     <t>20133508</t>
   </si>
   <si>
     <t>BIORE DEO P. T&amp;M 400</t>
   </si>
   <si>
-    <t>20060393</t>
-  </si>
-  <si>
-    <t>NUVO CAIR CLSC 400</t>
-  </si>
-  <si>
-    <t>20063269</t>
-  </si>
-  <si>
-    <t>NUVO CAIR NATURE 400</t>
-  </si>
-  <si>
-    <t>20114112</t>
-  </si>
-  <si>
-    <t>NUVO FRS.PRO LMN 400</t>
-  </si>
-  <si>
-    <t>20060392</t>
-  </si>
-  <si>
-    <t>NUVO CAIR CARING 400</t>
-  </si>
-  <si>
-    <t>20138658</t>
-  </si>
-  <si>
-    <t>NUVO BW HYGIENIC 400</t>
-  </si>
-  <si>
-    <t>20039727</t>
-  </si>
-  <si>
-    <t>SHINZU'I MATSU 380ML</t>
-  </si>
-  <si>
-    <t>20039728</t>
-  </si>
-  <si>
-    <t>SHINZU'I KIREI 380ML</t>
-  </si>
-  <si>
-    <t>20130653</t>
-  </si>
-  <si>
-    <t>SHINZU'I SKURA 380ML</t>
-  </si>
-  <si>
-    <t>20093101</t>
-  </si>
-  <si>
-    <t>ZEN BW A.BAC SHIS380</t>
-  </si>
-  <si>
-    <t>20135211</t>
-  </si>
-  <si>
-    <t>20138029</t>
-  </si>
-  <si>
-    <t>GIV BW SAKURA 400ML</t>
-  </si>
-  <si>
-    <t>20073514</t>
-  </si>
-  <si>
-    <t>GIV BW FLW&amp;BER 400ML</t>
-  </si>
-  <si>
-    <t>20060386</t>
-  </si>
-  <si>
-    <t>GIV BW MLB&amp;CLG PC400</t>
-  </si>
-  <si>
-    <t>20116987</t>
-  </si>
-  <si>
-    <t>GIV HIJAB TIN&amp;ZTN400</t>
-  </si>
-  <si>
-    <t>20121017</t>
-  </si>
-  <si>
-    <t>GIV BW HJB SAF&amp;N 400</t>
-  </si>
-  <si>
-    <t>20120923</t>
-  </si>
-  <si>
-    <t>K.NAT BW SP.MGNO 400</t>
-  </si>
-  <si>
-    <t>20112622</t>
-  </si>
-  <si>
-    <t>K.NAT BW COT.FLO 400</t>
-  </si>
-  <si>
-    <t>20129838</t>
-  </si>
-  <si>
-    <t>K.NAT BW JJ LEMON400</t>
-  </si>
-  <si>
     <t>20049941</t>
   </si>
   <si>
@@ -2047,12 +2053,6 @@
     <t>GNR MCL/WTR VITC 125</t>
   </si>
   <si>
-    <t>20136524</t>
-  </si>
-  <si>
-    <t>GLAD2 MC.WT PTHL 130</t>
-  </si>
-  <si>
     <t>20134946</t>
   </si>
   <si>
@@ -2818,12 +2818,6 @@
     <t>G2G FW P.VITA C 80G</t>
   </si>
   <si>
-    <t>20137594</t>
-  </si>
-  <si>
-    <t>G2G FW YUZU AHA 70ML</t>
-  </si>
-  <si>
     <t>20136004</t>
   </si>
   <si>
@@ -3751,6 +3745,12 @@
     <t>ROMANO EDT ATTDE 100</t>
   </si>
   <si>
+    <t>20140973</t>
+  </si>
+  <si>
+    <t>ROMANO EDP ZENITH 50</t>
+  </si>
+  <si>
     <t>20070152</t>
   </si>
   <si>
@@ -3761,12 +3761,6 @@
   </si>
   <si>
     <t>BELLAGIO EDP RAVE 50</t>
-  </si>
-  <si>
-    <t>20088372</t>
-  </si>
-  <si>
-    <t>ROMANO EDT FORCE 100</t>
   </si>
   <si>
     <t>20125158</t>
@@ -4735,7 +4729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F692"/>
+  <dimension ref="A1:F691"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -5036,21 +5030,21 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
@@ -5059,7 +5053,7 @@
         <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -5067,10 +5061,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
@@ -5079,18 +5073,18 @@
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
@@ -5099,7 +5093,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>5</v>
@@ -5107,10 +5101,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
@@ -5119,18 +5113,18 @@
         <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
@@ -5139,7 +5133,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -5147,10 +5141,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
@@ -5159,18 +5153,18 @@
         <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -5179,7 +5173,7 @@
         <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>5</v>
@@ -5187,10 +5181,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
@@ -5199,18 +5193,18 @@
         <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -5219,7 +5213,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>13</v>
@@ -5227,10 +5221,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
@@ -5239,7 +5233,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>13</v>
@@ -5247,30 +5241,30 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -5279,18 +5273,18 @@
         <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -5299,7 +5293,7 @@
         <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>9</v>
@@ -5307,10 +5301,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
@@ -5319,7 +5313,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>9</v>
@@ -5327,10 +5321,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -5339,18 +5333,18 @@
         <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
@@ -5359,18 +5353,18 @@
         <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
@@ -5379,18 +5373,18 @@
         <v>12</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
@@ -5399,18 +5393,18 @@
         <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -5419,7 +5413,7 @@
         <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>13</v>
@@ -5427,10 +5421,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
@@ -5439,7 +5433,7 @@
         <v>12</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>13</v>
@@ -5447,10 +5441,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
@@ -5459,18 +5453,18 @@
         <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
@@ -5479,7 +5473,7 @@
         <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>5</v>
@@ -5487,10 +5481,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
@@ -5499,7 +5493,7 @@
         <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>5</v>
@@ -5507,10 +5501,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
@@ -5519,18 +5513,18 @@
         <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
@@ -5539,27 +5533,27 @@
         <v>12</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>5</v>
@@ -5579,7 +5573,7 @@
         <v>16</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>5</v>
@@ -5599,10 +5593,10 @@
         <v>16</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -5619,7 +5613,7 @@
         <v>16</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>35</v>
@@ -5639,10 +5633,10 @@
         <v>16</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -5659,7 +5653,7 @@
         <v>16</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>5</v>
@@ -5679,7 +5673,7 @@
         <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>5</v>
@@ -5699,7 +5693,7 @@
         <v>16</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>5</v>
@@ -5719,7 +5713,7 @@
         <v>16</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>5</v>
@@ -5739,18 +5733,18 @@
         <v>16</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>3</v>
@@ -5759,18 +5753,18 @@
         <v>16</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>3</v>
@@ -5779,10 +5773,10 @@
         <v>16</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -5799,10 +5793,10 @@
         <v>16</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -5819,10 +5813,10 @@
         <v>16</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -5839,10 +5833,10 @@
         <v>16</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -5859,7 +5853,7 @@
         <v>16</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>13</v>
@@ -5867,10 +5861,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>3</v>
@@ -5879,18 +5873,18 @@
         <v>16</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
@@ -5899,7 +5893,7 @@
         <v>16</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>35</v>
@@ -5907,10 +5901,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>3</v>
@@ -5919,7 +5913,7 @@
         <v>16</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>35</v>
@@ -5927,10 +5921,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>3</v>
@@ -5939,7 +5933,7 @@
         <v>16</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>35</v>
@@ -5947,10 +5941,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>3</v>
@@ -5959,7 +5953,7 @@
         <v>16</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>35</v>
@@ -5967,10 +5961,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>3</v>
@@ -5979,18 +5973,18 @@
         <v>16</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>3</v>
@@ -5999,30 +5993,30 @@
         <v>16</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -6039,10 +6033,10 @@
         <v>19</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -6059,10 +6053,10 @@
         <v>19</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -6079,10 +6073,10 @@
         <v>19</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -6099,10 +6093,10 @@
         <v>19</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -6119,18 +6113,18 @@
         <v>19</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>3</v>
@@ -6139,10 +6133,10 @@
         <v>19</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -6159,10 +6153,10 @@
         <v>19</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -6179,10 +6173,10 @@
         <v>19</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -6199,10 +6193,10 @@
         <v>19</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -6219,10 +6213,10 @@
         <v>19</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -6239,10 +6233,10 @@
         <v>19</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -6259,10 +6253,10 @@
         <v>19</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -6279,10 +6273,10 @@
         <v>19</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -6299,10 +6293,10 @@
         <v>19</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -6319,10 +6313,10 @@
         <v>19</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -6339,10 +6333,10 @@
         <v>19</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -6359,18 +6353,18 @@
         <v>19</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>3</v>
@@ -6379,10 +6373,10 @@
         <v>19</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>195</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -6399,10 +6393,10 @@
         <v>19</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -6416,10 +6410,10 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>5</v>
@@ -6439,7 +6433,7 @@
         <v>22</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>5</v>
@@ -6459,7 +6453,7 @@
         <v>22</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>5</v>
@@ -6479,7 +6473,7 @@
         <v>22</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>5</v>
@@ -6499,7 +6493,7 @@
         <v>22</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>5</v>
@@ -6519,7 +6513,7 @@
         <v>22</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>5</v>
@@ -6539,10 +6533,10 @@
         <v>22</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -6559,10 +6553,10 @@
         <v>22</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -6579,10 +6573,10 @@
         <v>22</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -6599,10 +6593,10 @@
         <v>22</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -6619,10 +6613,10 @@
         <v>22</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -6639,7 +6633,7 @@
         <v>22</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>5</v>
@@ -6659,10 +6653,10 @@
         <v>22</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -6679,10 +6673,10 @@
         <v>22</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -6696,13 +6690,13 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -6719,10 +6713,10 @@
         <v>25</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -6739,10 +6733,10 @@
         <v>25</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -6759,10 +6753,10 @@
         <v>25</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -6779,18 +6773,18 @@
         <v>25</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>3</v>
@@ -6799,10 +6793,10 @@
         <v>25</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>238</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -6819,10 +6813,10 @@
         <v>25</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -6839,10 +6833,10 @@
         <v>25</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -6859,10 +6853,10 @@
         <v>25</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -6879,10 +6873,10 @@
         <v>25</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -6899,10 +6893,10 @@
         <v>25</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -6919,10 +6913,10 @@
         <v>25</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -6936,13 +6930,13 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -6959,10 +6953,10 @@
         <v>28</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -6979,10 +6973,10 @@
         <v>28</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -6999,10 +6993,10 @@
         <v>28</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -7019,10 +7013,10 @@
         <v>28</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>238</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -7039,10 +7033,10 @@
         <v>28</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -7059,10 +7053,10 @@
         <v>28</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -7079,10 +7073,10 @@
         <v>28</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -7099,10 +7093,10 @@
         <v>28</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -7119,10 +7113,10 @@
         <v>28</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>195</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -7139,7 +7133,7 @@
         <v>28</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>13</v>
@@ -7159,10 +7153,10 @@
         <v>28</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -7179,10 +7173,10 @@
         <v>28</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -7199,10 +7193,10 @@
         <v>28</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -7219,10 +7213,10 @@
         <v>28</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>195</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -7236,13 +7230,13 @@
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>35</v>
+        <v>193</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -7259,18 +7253,18 @@
         <v>31</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>195</v>
+        <v>285</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>3</v>
@@ -7279,10 +7273,10 @@
         <v>31</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>287</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -7299,10 +7293,10 @@
         <v>31</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -7319,10 +7313,10 @@
         <v>31</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -7339,7 +7333,7 @@
         <v>31</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>5</v>
@@ -7359,7 +7353,7 @@
         <v>31</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>5</v>
@@ -7379,7 +7373,7 @@
         <v>31</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>5</v>
@@ -7399,7 +7393,7 @@
         <v>31</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>5</v>
@@ -7419,7 +7413,7 @@
         <v>31</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>5</v>
@@ -7439,10 +7433,10 @@
         <v>31</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -7459,10 +7453,10 @@
         <v>31</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -7479,10 +7473,10 @@
         <v>31</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -7499,7 +7493,7 @@
         <v>31</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>5</v>
@@ -7519,10 +7513,10 @@
         <v>31</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -7539,18 +7533,18 @@
         <v>31</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>13</v>
+        <v>314</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>3</v>
@@ -7559,10 +7553,10 @@
         <v>31</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>316</v>
+        <v>123</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -7579,10 +7573,10 @@
         <v>31</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -7599,10 +7593,10 @@
         <v>31</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>13</v>
+        <v>314</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -7616,13 +7610,13 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>316</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -7639,10 +7633,10 @@
         <v>34</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -7659,7 +7653,7 @@
         <v>34</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>13</v>
@@ -7679,7 +7673,7 @@
         <v>34</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>13</v>
@@ -7699,7 +7693,7 @@
         <v>34</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>13</v>
@@ -7719,7 +7713,7 @@
         <v>34</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>13</v>
@@ -7739,7 +7733,7 @@
         <v>34</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>13</v>
@@ -7759,10 +7753,10 @@
         <v>34</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -7779,10 +7773,10 @@
         <v>34</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -7799,10 +7793,10 @@
         <v>34</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -7819,7 +7813,7 @@
         <v>34</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>35</v>
@@ -7839,7 +7833,7 @@
         <v>34</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>35</v>
@@ -7859,10 +7853,10 @@
         <v>34</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>35</v>
+        <v>314</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -7879,10 +7873,10 @@
         <v>34</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -7899,10 +7893,10 @@
         <v>34</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -7916,13 +7910,13 @@
         <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -7939,10 +7933,10 @@
         <v>38</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -7959,10 +7953,10 @@
         <v>38</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -7979,10 +7973,10 @@
         <v>38</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -7999,10 +7993,10 @@
         <v>38</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -8019,10 +8013,10 @@
         <v>38</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>316</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -8039,7 +8033,7 @@
         <v>38</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>13</v>
@@ -8059,7 +8053,7 @@
         <v>38</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>13</v>
@@ -8079,7 +8073,7 @@
         <v>38</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>13</v>
@@ -8099,7 +8093,7 @@
         <v>38</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>13</v>
@@ -8119,10 +8113,10 @@
         <v>38</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -8139,7 +8133,7 @@
         <v>38</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>5</v>
@@ -8159,10 +8153,10 @@
         <v>38</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -8179,7 +8173,7 @@
         <v>38</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>35</v>
@@ -8199,10 +8193,10 @@
         <v>38</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -8219,10 +8213,10 @@
         <v>38</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -8236,10 +8230,10 @@
         <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>13</v>
@@ -8259,7 +8253,7 @@
         <v>41</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>13</v>
@@ -8279,10 +8273,10 @@
         <v>41</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>13</v>
+        <v>314</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -8299,10 +8293,10 @@
         <v>41</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>316</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -8319,7 +8313,7 @@
         <v>41</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>13</v>
@@ -8339,7 +8333,7 @@
         <v>41</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>13</v>
@@ -8359,10 +8353,10 @@
         <v>41</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>13</v>
+        <v>314</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -8379,10 +8373,10 @@
         <v>41</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>316</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -8399,10 +8393,10 @@
         <v>41</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -8419,7 +8413,7 @@
         <v>41</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>35</v>
@@ -8439,7 +8433,7 @@
         <v>41</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>35</v>
@@ -8459,7 +8453,7 @@
         <v>41</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>35</v>
@@ -8479,10 +8473,10 @@
         <v>41</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -8499,7 +8493,7 @@
         <v>41</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>13</v>
@@ -8519,7 +8513,7 @@
         <v>41</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>13</v>
@@ -8536,13 +8530,13 @@
         <v>3</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -8559,10 +8553,10 @@
         <v>44</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -8579,10 +8573,10 @@
         <v>44</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -8599,7 +8593,7 @@
         <v>44</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>35</v>
@@ -8619,7 +8613,7 @@
         <v>44</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>35</v>
@@ -8639,10 +8633,10 @@
         <v>44</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -8659,10 +8653,10 @@
         <v>44</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -8679,7 +8673,7 @@
         <v>44</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>13</v>
@@ -8699,10 +8693,10 @@
         <v>44</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>13</v>
+        <v>314</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -8719,10 +8713,10 @@
         <v>44</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>316</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -8739,7 +8733,7 @@
         <v>44</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>5</v>
@@ -8759,7 +8753,7 @@
         <v>44</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>5</v>
@@ -8779,7 +8773,7 @@
         <v>44</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>5</v>
@@ -8796,13 +8790,13 @@
         <v>3</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -8816,13 +8810,13 @@
         <v>3</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -8836,13 +8830,13 @@
         <v>3</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -8856,13 +8850,13 @@
         <v>3</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -8876,13 +8870,13 @@
         <v>3</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -8896,13 +8890,13 @@
         <v>3</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -8916,13 +8910,13 @@
         <v>3</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -8936,7 +8930,7 @@
         <v>3</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>8</v>
@@ -8956,7 +8950,7 @@
         <v>3</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>12</v>
@@ -8976,7 +8970,7 @@
         <v>3</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>12</v>
@@ -8996,7 +8990,7 @@
         <v>3</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>12</v>
@@ -9016,7 +9010,7 @@
         <v>3</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>16</v>
@@ -9036,7 +9030,7 @@
         <v>3</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>16</v>
@@ -9056,7 +9050,7 @@
         <v>3</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>16</v>
@@ -9076,7 +9070,7 @@
         <v>3</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>19</v>
@@ -9096,7 +9090,7 @@
         <v>3</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>19</v>
@@ -9116,7 +9110,7 @@
         <v>3</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>19</v>
@@ -9136,7 +9130,7 @@
         <v>3</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>22</v>
@@ -9156,7 +9150,7 @@
         <v>3</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>22</v>
@@ -9176,7 +9170,7 @@
         <v>3</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>22</v>
@@ -9196,7 +9190,7 @@
         <v>3</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>25</v>
@@ -9216,7 +9210,7 @@
         <v>3</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>25</v>
@@ -9236,7 +9230,7 @@
         <v>3</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>25</v>
@@ -9256,7 +9250,7 @@
         <v>3</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>28</v>
@@ -9276,7 +9270,7 @@
         <v>3</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>28</v>
@@ -9296,7 +9290,7 @@
         <v>3</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>28</v>
@@ -9316,7 +9310,7 @@
         <v>3</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>31</v>
@@ -9336,7 +9330,7 @@
         <v>3</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>31</v>
@@ -9356,7 +9350,7 @@
         <v>3</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>34</v>
@@ -9376,7 +9370,7 @@
         <v>3</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>38</v>
@@ -9396,7 +9390,7 @@
         <v>3</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>41</v>
@@ -9416,7 +9410,7 @@
         <v>3</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>41</v>
@@ -9436,7 +9430,7 @@
         <v>3</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>4</v>
@@ -9456,7 +9450,7 @@
         <v>3</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>8</v>
@@ -9476,13 +9470,13 @@
         <v>3</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -9496,13 +9490,13 @@
         <v>3</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -9516,13 +9510,13 @@
         <v>3</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -9536,7 +9530,7 @@
         <v>3</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>22</v>
@@ -9556,13 +9550,13 @@
         <v>3</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -9576,13 +9570,13 @@
         <v>3</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -9596,7 +9590,7 @@
         <v>3</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>31</v>
@@ -9616,13 +9610,13 @@
         <v>3</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -9636,7 +9630,7 @@
         <v>3</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>4</v>
@@ -9656,7 +9650,7 @@
         <v>3</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>8</v>
@@ -9676,7 +9670,7 @@
         <v>3</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>12</v>
@@ -9696,13 +9690,13 @@
         <v>3</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -9716,7 +9710,7 @@
         <v>3</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>19</v>
@@ -9736,13 +9730,13 @@
         <v>3</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -9756,7 +9750,7 @@
         <v>3</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>25</v>
@@ -9776,7 +9770,7 @@
         <v>3</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>28</v>
@@ -9796,13 +9790,13 @@
         <v>3</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -9816,7 +9810,7 @@
         <v>3</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>34</v>
@@ -9836,7 +9830,7 @@
         <v>3</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>4</v>
@@ -9856,7 +9850,7 @@
         <v>3</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>8</v>
@@ -9876,7 +9870,7 @@
         <v>3</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>12</v>
@@ -9896,7 +9890,7 @@
         <v>3</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>16</v>
@@ -9916,7 +9910,7 @@
         <v>3</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>19</v>
@@ -9936,7 +9930,7 @@
         <v>3</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>22</v>
@@ -9956,7 +9950,7 @@
         <v>3</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>25</v>
@@ -9976,7 +9970,7 @@
         <v>3</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>28</v>
@@ -9996,7 +9990,7 @@
         <v>3</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>31</v>
@@ -10016,13 +10010,13 @@
         <v>3</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -10036,7 +10030,7 @@
         <v>3</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>4</v>
@@ -10056,7 +10050,7 @@
         <v>3</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>8</v>
@@ -10076,7 +10070,7 @@
         <v>3</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>12</v>
@@ -10096,7 +10090,7 @@
         <v>3</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>16</v>
@@ -10116,7 +10110,7 @@
         <v>3</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>19</v>
@@ -10136,7 +10130,7 @@
         <v>3</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>22</v>
@@ -10156,7 +10150,7 @@
         <v>3</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>25</v>
@@ -10176,7 +10170,7 @@
         <v>3</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>28</v>
@@ -10196,7 +10190,7 @@
         <v>3</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>31</v>
@@ -10216,7 +10210,7 @@
         <v>3</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>34</v>
@@ -10236,7 +10230,7 @@
         <v>3</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>4</v>
@@ -10256,7 +10250,7 @@
         <v>3</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>8</v>
@@ -10276,7 +10270,7 @@
         <v>3</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>12</v>
@@ -10296,7 +10290,7 @@
         <v>3</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>16</v>
@@ -10316,7 +10310,7 @@
         <v>3</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>19</v>
@@ -10336,7 +10330,7 @@
         <v>3</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>22</v>
@@ -10356,7 +10350,7 @@
         <v>3</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>25</v>
@@ -10376,7 +10370,7 @@
         <v>3</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>28</v>
@@ -10396,13 +10390,13 @@
         <v>3</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -10416,10 +10410,10 @@
         <v>3</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>13</v>
@@ -10436,10 +10430,10 @@
         <v>3</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>13</v>
@@ -10456,10 +10450,10 @@
         <v>3</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>13</v>
@@ -10476,13 +10470,13 @@
         <v>3</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -10496,13 +10490,13 @@
         <v>3</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -10516,13 +10510,13 @@
         <v>3</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -10536,10 +10530,10 @@
         <v>3</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>5</v>
@@ -10556,10 +10550,10 @@
         <v>3</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>5</v>
@@ -10576,10 +10570,10 @@
         <v>3</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>5</v>
@@ -10596,13 +10590,13 @@
         <v>3</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -10616,13 +10610,13 @@
         <v>3</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -10636,13 +10630,13 @@
         <v>3</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -10656,13 +10650,13 @@
         <v>3</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -10676,10 +10670,10 @@
         <v>3</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>5</v>
@@ -10696,10 +10690,10 @@
         <v>3</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>5</v>
@@ -10716,10 +10710,10 @@
         <v>3</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>5</v>
@@ -10736,10 +10730,10 @@
         <v>3</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>5</v>
@@ -10756,10 +10750,10 @@
         <v>3</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>5</v>
@@ -10776,10 +10770,10 @@
         <v>3</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>5</v>
@@ -10796,10 +10790,10 @@
         <v>3</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>5</v>
@@ -10816,10 +10810,10 @@
         <v>3</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>5</v>
@@ -10836,10 +10830,10 @@
         <v>3</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>5</v>
@@ -10856,10 +10850,10 @@
         <v>3</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>5</v>
@@ -10876,10 +10870,10 @@
         <v>3</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>5</v>
@@ -10896,10 +10890,10 @@
         <v>3</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>5</v>
@@ -10916,33 +10910,33 @@
         <v>3</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>653</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B310" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="C310" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F310" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F310" s="1" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -10956,13 +10950,13 @@
         <v>3</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>5</v>
+        <v>655</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -10976,10 +10970,10 @@
         <v>3</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>5</v>
@@ -10996,13 +10990,13 @@
         <v>3</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -11016,10 +11010,10 @@
         <v>3</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>35</v>
@@ -11036,13 +11030,13 @@
         <v>3</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -11056,10 +11050,10 @@
         <v>3</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>5</v>
@@ -11076,10 +11070,10 @@
         <v>3</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>5</v>
@@ -11096,13 +11090,13 @@
         <v>3</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -11116,13 +11110,13 @@
         <v>3</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -11136,10 +11130,10 @@
         <v>3</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>5</v>
@@ -11156,10 +11150,10 @@
         <v>3</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>5</v>
@@ -11176,10 +11170,10 @@
         <v>3</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>5</v>
@@ -11196,7 +11190,7 @@
         <v>3</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>28</v>
@@ -11216,7 +11210,7 @@
         <v>3</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>31</v>
@@ -11236,7 +11230,7 @@
         <v>3</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>34</v>
@@ -11256,7 +11250,7 @@
         <v>3</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>38</v>
@@ -11276,7 +11270,7 @@
         <v>3</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>41</v>
@@ -11296,7 +11290,7 @@
         <v>3</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>44</v>
@@ -11316,10 +11310,10 @@
         <v>3</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>35</v>
@@ -11336,13 +11330,13 @@
         <v>3</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -11356,10 +11350,10 @@
         <v>3</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>5</v>
@@ -11376,10 +11370,10 @@
         <v>3</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>5</v>
@@ -11396,10 +11390,10 @@
         <v>3</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>5</v>
@@ -11762,7 +11756,7 @@
         <v>19</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -11802,7 +11796,7 @@
         <v>25</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -11939,7 +11933,7 @@
         <v>731</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="F360" s="1" t="s">
         <v>13</v>
@@ -12219,7 +12213,7 @@
         <v>760</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>5</v>
@@ -12239,7 +12233,7 @@
         <v>760</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F375" s="1" t="s">
         <v>5</v>
@@ -12259,7 +12253,7 @@
         <v>760</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F376" s="1" t="s">
         <v>5</v>
@@ -12279,7 +12273,7 @@
         <v>760</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F377" s="1" t="s">
         <v>35</v>
@@ -12299,7 +12293,7 @@
         <v>760</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>35</v>
@@ -12319,7 +12313,7 @@
         <v>760</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F379" s="1" t="s">
         <v>35</v>
@@ -12599,7 +12593,7 @@
         <v>799</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="F393" s="1" t="s">
         <v>35</v>
@@ -12619,7 +12613,7 @@
         <v>799</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F394" s="1" t="s">
         <v>35</v>
@@ -12639,7 +12633,7 @@
         <v>799</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F395" s="1" t="s">
         <v>5</v>
@@ -12659,7 +12653,7 @@
         <v>799</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F396" s="1" t="s">
         <v>5</v>
@@ -12679,7 +12673,7 @@
         <v>799</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F397" s="1" t="s">
         <v>35</v>
@@ -12699,7 +12693,7 @@
         <v>799</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F398" s="1" t="s">
         <v>9</v>
@@ -12719,7 +12713,7 @@
         <v>799</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F399" s="1" t="s">
         <v>9</v>
@@ -12762,7 +12756,7 @@
         <v>8</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
@@ -12782,7 +12776,7 @@
         <v>12</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
@@ -12802,7 +12796,7 @@
         <v>16</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
@@ -12822,7 +12816,7 @@
         <v>19</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
@@ -12999,7 +12993,7 @@
         <v>840</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="F413" s="1" t="s">
         <v>13</v>
@@ -13019,7 +13013,7 @@
         <v>840</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F414" s="1" t="s">
         <v>13</v>
@@ -13039,7 +13033,7 @@
         <v>840</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F415" s="1" t="s">
         <v>13</v>
@@ -13059,7 +13053,7 @@
         <v>840</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F416" s="1" t="s">
         <v>13</v>
@@ -13079,7 +13073,7 @@
         <v>840</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F417" s="1" t="s">
         <v>5</v>
@@ -13099,7 +13093,7 @@
         <v>840</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F418" s="1" t="s">
         <v>35</v>
@@ -13119,7 +13113,7 @@
         <v>840</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F419" s="1" t="s">
         <v>35</v>
@@ -13139,7 +13133,7 @@
         <v>840</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F420" s="1" t="s">
         <v>5</v>
@@ -13162,7 +13156,7 @@
         <v>4</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
@@ -13182,7 +13176,7 @@
         <v>8</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
@@ -13202,7 +13196,7 @@
         <v>12</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
@@ -13222,7 +13216,7 @@
         <v>16</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
@@ -13242,7 +13236,7 @@
         <v>19</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
@@ -13262,7 +13256,7 @@
         <v>22</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
@@ -13282,7 +13276,7 @@
         <v>25</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
@@ -13422,7 +13416,7 @@
         <v>25</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
@@ -13522,7 +13516,7 @@
         <v>41</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
@@ -13559,7 +13553,7 @@
         <v>898</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="F441" s="1" t="s">
         <v>5</v>
@@ -13579,7 +13573,7 @@
         <v>898</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F442" s="1" t="s">
         <v>5</v>
@@ -13599,7 +13593,7 @@
         <v>898</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F443" s="1" t="s">
         <v>5</v>
@@ -13659,7 +13653,7 @@
         <v>932</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F446" s="1" t="s">
         <v>5</v>
@@ -13679,7 +13673,7 @@
         <v>932</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F447" s="1" t="s">
         <v>5</v>
@@ -13699,10 +13693,10 @@
         <v>932</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -13719,10 +13713,10 @@
         <v>932</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>35</v>
+        <v>193</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
@@ -13739,10 +13733,10 @@
         <v>932</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
@@ -13759,10 +13753,10 @@
         <v>932</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
@@ -13779,10 +13773,10 @@
         <v>932</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
@@ -13799,10 +13793,10 @@
         <v>932</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
@@ -13819,7 +13813,7 @@
         <v>932</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F454" s="1" t="s">
         <v>35</v>
@@ -13839,7 +13833,7 @@
         <v>932</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F455" s="1" t="s">
         <v>35</v>
@@ -13859,10 +13853,10 @@
         <v>932</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
@@ -13879,10 +13873,10 @@
         <v>932</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -13896,33 +13890,33 @@
         <v>3</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D459" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="B459" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D459" s="1" t="s">
-        <v>963</v>
-      </c>
       <c r="E459" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
@@ -13936,13 +13930,13 @@
         <v>3</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F460" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
@@ -13956,13 +13950,13 @@
         <v>3</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F461" s="1" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
@@ -13976,10 +13970,10 @@
         <v>3</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F462" s="1" t="s">
         <v>5</v>
@@ -13996,13 +13990,13 @@
         <v>3</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
@@ -14016,13 +14010,13 @@
         <v>3</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F464" s="1" t="s">
-        <v>195</v>
+        <v>120</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
@@ -14036,13 +14030,13 @@
         <v>3</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F465" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -14056,13 +14050,13 @@
         <v>3</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
@@ -14076,10 +14070,10 @@
         <v>3</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F467" s="1" t="s">
         <v>13</v>
@@ -14096,13 +14090,13 @@
         <v>3</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
@@ -14116,13 +14110,13 @@
         <v>3</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
@@ -14136,13 +14130,13 @@
         <v>3</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
@@ -14156,10 +14150,10 @@
         <v>3</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F471" s="1" t="s">
         <v>5</v>
@@ -14176,10 +14170,10 @@
         <v>3</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F472" s="1" t="s">
         <v>5</v>
@@ -14196,33 +14190,33 @@
         <v>3</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>963</v>
+        <v>992</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D474" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="B474" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D474" s="1" t="s">
-        <v>994</v>
-      </c>
       <c r="E474" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
@@ -14236,13 +14230,13 @@
         <v>3</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
@@ -14256,13 +14250,13 @@
         <v>3</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
@@ -14276,13 +14270,13 @@
         <v>3</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>287</v>
+        <v>5</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
@@ -14296,10 +14290,10 @@
         <v>3</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F478" s="1" t="s">
         <v>5</v>
@@ -14316,10 +14310,10 @@
         <v>3</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F479" s="1" t="s">
         <v>5</v>
@@ -14336,10 +14330,10 @@
         <v>3</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F480" s="1" t="s">
         <v>5</v>
@@ -14356,10 +14350,10 @@
         <v>3</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F481" s="1" t="s">
         <v>5</v>
@@ -14376,10 +14370,10 @@
         <v>3</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F482" s="1" t="s">
         <v>5</v>
@@ -14396,10 +14390,10 @@
         <v>3</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F483" s="1" t="s">
         <v>5</v>
@@ -14416,10 +14410,10 @@
         <v>3</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F484" s="1" t="s">
         <v>5</v>
@@ -14436,10 +14430,10 @@
         <v>3</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F485" s="1" t="s">
         <v>5</v>
@@ -14456,10 +14450,10 @@
         <v>3</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F486" s="1" t="s">
         <v>5</v>
@@ -14476,10 +14470,10 @@
         <v>3</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F487" s="1" t="s">
         <v>5</v>
@@ -14496,10 +14490,10 @@
         <v>3</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="F488" s="1" t="s">
         <v>5</v>
@@ -14516,33 +14510,33 @@
         <v>3</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>994</v>
+        <v>1025</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D490" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B490" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C490" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D490" s="1" t="s">
-        <v>1027</v>
-      </c>
       <c r="E490" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
@@ -14556,10 +14550,10 @@
         <v>3</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F491" s="1" t="s">
         <v>5</v>
@@ -14576,10 +14570,10 @@
         <v>3</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F492" s="1" t="s">
         <v>5</v>
@@ -14596,13 +14590,13 @@
         <v>3</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
@@ -14616,13 +14610,13 @@
         <v>3</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
@@ -14636,13 +14630,13 @@
         <v>3</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
@@ -14656,10 +14650,10 @@
         <v>3</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F496" s="1" t="s">
         <v>5</v>
@@ -14676,10 +14670,10 @@
         <v>3</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F497" s="1" t="s">
         <v>5</v>
@@ -14696,33 +14690,33 @@
         <v>3</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>5</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>1046</v>
+        <v>5</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
@@ -14736,10 +14730,10 @@
         <v>3</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F500" s="1" t="s">
         <v>5</v>
@@ -14756,10 +14750,10 @@
         <v>3</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F501" s="1" t="s">
         <v>5</v>
@@ -14776,10 +14770,10 @@
         <v>3</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F502" s="1" t="s">
         <v>5</v>
@@ -14796,10 +14790,10 @@
         <v>3</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F503" s="1" t="s">
         <v>5</v>
@@ -14816,10 +14810,10 @@
         <v>3</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="F504" s="1" t="s">
         <v>5</v>
@@ -14836,13 +14830,13 @@
         <v>3</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
@@ -14856,10 +14850,10 @@
         <v>3</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F506" s="1" t="s">
         <v>13</v>
@@ -14876,30 +14870,30 @@
         <v>3</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>1027</v>
+        <v>1063</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D508" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="B508" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C508" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D508" s="1" t="s">
-        <v>1065</v>
-      </c>
       <c r="E508" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F508" s="1" t="s">
         <v>5</v>
@@ -14916,10 +14910,10 @@
         <v>3</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F509" s="1" t="s">
         <v>5</v>
@@ -14936,10 +14930,10 @@
         <v>3</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F510" s="1" t="s">
         <v>5</v>
@@ -14956,10 +14950,10 @@
         <v>3</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F511" s="1" t="s">
         <v>5</v>
@@ -14976,10 +14970,10 @@
         <v>3</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F512" s="1" t="s">
         <v>5</v>
@@ -14996,10 +14990,10 @@
         <v>3</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F513" s="1" t="s">
         <v>5</v>
@@ -15016,10 +15010,10 @@
         <v>3</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F514" s="1" t="s">
         <v>5</v>
@@ -15036,10 +15030,10 @@
         <v>3</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F515" s="1" t="s">
         <v>5</v>
@@ -15056,10 +15050,10 @@
         <v>3</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F516" s="1" t="s">
         <v>5</v>
@@ -15076,10 +15070,10 @@
         <v>3</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F517" s="1" t="s">
         <v>5</v>
@@ -15096,10 +15090,10 @@
         <v>3</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F518" s="1" t="s">
         <v>5</v>
@@ -15116,10 +15110,10 @@
         <v>3</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F519" s="1" t="s">
         <v>5</v>
@@ -15136,10 +15130,10 @@
         <v>3</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F520" s="1" t="s">
         <v>5</v>
@@ -15156,10 +15150,10 @@
         <v>3</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F521" s="1" t="s">
         <v>5</v>
@@ -15176,33 +15170,33 @@
         <v>3</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>1065</v>
+        <v>1094</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D523" s="1" t="s">
         <v>1094</v>
-      </c>
-      <c r="B523" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C523" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D523" s="1" t="s">
-        <v>1096</v>
       </c>
       <c r="E523" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
@@ -15216,7 +15210,7 @@
         <v>3</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E524" s="1" t="s">
         <v>4</v>
@@ -15236,13 +15230,13 @@
         <v>3</v>
       </c>
       <c r="D525" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F525" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
@@ -15256,13 +15250,13 @@
         <v>3</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E526" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
@@ -15276,7 +15270,7 @@
         <v>3</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E527" s="1" t="s">
         <v>8</v>
@@ -15296,10 +15290,10 @@
         <v>3</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F528" s="1" t="s">
         <v>5</v>
@@ -15316,7 +15310,7 @@
         <v>3</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E529" s="1" t="s">
         <v>12</v>
@@ -15336,7 +15330,7 @@
         <v>3</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E530" s="1" t="s">
         <v>12</v>
@@ -15356,10 +15350,10 @@
         <v>3</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F531" s="1" t="s">
         <v>5</v>
@@ -15376,7 +15370,7 @@
         <v>3</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E532" s="1" t="s">
         <v>16</v>
@@ -15396,7 +15390,7 @@
         <v>3</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E533" s="1" t="s">
         <v>16</v>
@@ -15416,10 +15410,10 @@
         <v>3</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F534" s="1" t="s">
         <v>5</v>
@@ -15436,7 +15430,7 @@
         <v>3</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E535" s="1" t="s">
         <v>19</v>
@@ -15456,7 +15450,7 @@
         <v>3</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E536" s="1" t="s">
         <v>19</v>
@@ -15476,13 +15470,13 @@
         <v>3</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F537" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
@@ -15496,13 +15490,13 @@
         <v>3</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E538" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F538" s="1" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
@@ -15516,7 +15510,7 @@
         <v>3</v>
       </c>
       <c r="D539" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E539" s="1" t="s">
         <v>22</v>
@@ -15536,13 +15530,13 @@
         <v>3</v>
       </c>
       <c r="D540" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
@@ -15556,13 +15550,13 @@
         <v>3</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E541" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F541" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
@@ -15576,13 +15570,13 @@
         <v>3</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E542" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
@@ -15596,13 +15590,13 @@
         <v>3</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
@@ -15616,13 +15610,13 @@
         <v>3</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E544" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F544" s="1" t="s">
-        <v>195</v>
+        <v>13</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
@@ -15636,13 +15630,13 @@
         <v>3</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E545" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
@@ -15656,13 +15650,13 @@
         <v>3</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
@@ -15676,13 +15670,13 @@
         <v>3</v>
       </c>
       <c r="D547" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E547" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
@@ -15696,13 +15690,13 @@
         <v>3</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E548" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
@@ -15716,13 +15710,13 @@
         <v>3</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
@@ -15736,13 +15730,13 @@
         <v>3</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E550" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
@@ -15756,13 +15750,13 @@
         <v>3</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E551" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
@@ -15776,13 +15770,13 @@
         <v>3</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
@@ -15796,7 +15790,7 @@
         <v>3</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E553" s="1" t="s">
         <v>38</v>
@@ -15816,13 +15810,13 @@
         <v>3</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
@@ -15836,13 +15830,13 @@
         <v>3</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
@@ -15856,10 +15850,10 @@
         <v>3</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F556" s="1" t="s">
         <v>5</v>
@@ -15876,10 +15870,10 @@
         <v>3</v>
       </c>
       <c r="D557" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F557" s="1" t="s">
         <v>5</v>
@@ -15896,10 +15890,10 @@
         <v>3</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>1096</v>
+        <v>1167</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="F558" s="1" t="s">
         <v>5</v>
@@ -15907,22 +15901,22 @@
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D559" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="B559" s="1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C559" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D559" s="1" t="s">
-        <v>1169</v>
-      </c>
       <c r="E559" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
@@ -15936,13 +15930,13 @@
         <v>3</v>
       </c>
       <c r="D560" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
@@ -15956,10 +15950,10 @@
         <v>3</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F561" s="1" t="s">
         <v>5</v>
@@ -15976,13 +15970,13 @@
         <v>3</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E562" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F562" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
@@ -15996,10 +15990,10 @@
         <v>3</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F563" s="1" t="s">
         <v>13</v>
@@ -16016,13 +16010,13 @@
         <v>3</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F564" s="1" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
@@ -16036,13 +16030,13 @@
         <v>3</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F565" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
@@ -16056,13 +16050,13 @@
         <v>3</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F566" s="1" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
@@ -16076,10 +16070,10 @@
         <v>3</v>
       </c>
       <c r="D567" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E567" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F567" s="1" t="s">
         <v>5</v>
@@ -16096,13 +16090,13 @@
         <v>3</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F568" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
@@ -16116,13 +16110,13 @@
         <v>3</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
@@ -16136,13 +16130,13 @@
         <v>3</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
@@ -16156,13 +16150,13 @@
         <v>3</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F571" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
@@ -16176,33 +16170,33 @@
         <v>3</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>1169</v>
+        <v>1196</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="F572" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D573" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B573" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C573" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D573" s="1" t="s">
-        <v>1198</v>
-      </c>
       <c r="E573" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F573" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
@@ -16216,13 +16210,13 @@
         <v>3</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F574" s="1" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
@@ -16236,13 +16230,13 @@
         <v>3</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F575" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
@@ -16256,13 +16250,13 @@
         <v>3</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
@@ -16276,13 +16270,13 @@
         <v>3</v>
       </c>
       <c r="D577" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
@@ -16296,13 +16290,13 @@
         <v>3</v>
       </c>
       <c r="D578" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F578" s="1" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
@@ -16316,10 +16310,10 @@
         <v>3</v>
       </c>
       <c r="D579" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F579" s="1" t="s">
         <v>5</v>
@@ -16336,10 +16330,10 @@
         <v>3</v>
       </c>
       <c r="D580" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E580" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F580" s="1" t="s">
         <v>5</v>
@@ -16356,10 +16350,10 @@
         <v>3</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F581" s="1" t="s">
         <v>5</v>
@@ -16376,10 +16370,10 @@
         <v>3</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F582" s="1" t="s">
         <v>5</v>
@@ -16396,10 +16390,10 @@
         <v>3</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E583" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F583" s="1" t="s">
         <v>5</v>
@@ -16416,10 +16410,10 @@
         <v>3</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E584" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F584" s="1" t="s">
         <v>5</v>
@@ -16436,10 +16430,10 @@
         <v>3</v>
       </c>
       <c r="D585" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F585" s="1" t="s">
         <v>5</v>
@@ -16456,33 +16450,33 @@
         <v>3</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>1198</v>
+        <v>1225</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="F586" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D587" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="B587" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C587" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D587" s="1" t="s">
-        <v>1227</v>
-      </c>
       <c r="E587" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F587" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
@@ -16496,13 +16490,13 @@
         <v>3</v>
       </c>
       <c r="D588" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E588" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F588" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
@@ -16516,13 +16510,13 @@
         <v>3</v>
       </c>
       <c r="D589" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
@@ -16536,10 +16530,10 @@
         <v>3</v>
       </c>
       <c r="D590" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E590" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F590" s="1" t="s">
         <v>5</v>
@@ -16556,10 +16550,10 @@
         <v>3</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E591" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F591" s="1" t="s">
         <v>5</v>
@@ -16576,10 +16570,10 @@
         <v>3</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E592" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F592" s="1" t="s">
         <v>5</v>
@@ -16596,10 +16590,10 @@
         <v>3</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E593" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F593" s="1" t="s">
         <v>5</v>
@@ -16616,10 +16610,10 @@
         <v>3</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E594" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F594" s="1" t="s">
         <v>5</v>
@@ -16636,10 +16630,10 @@
         <v>3</v>
       </c>
       <c r="D595" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E595" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F595" s="1" t="s">
         <v>5</v>
@@ -16656,13 +16650,13 @@
         <v>3</v>
       </c>
       <c r="D596" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E596" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
@@ -16676,10 +16670,10 @@
         <v>3</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E597" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F597" s="1" t="s">
         <v>9</v>
@@ -16696,10 +16690,10 @@
         <v>3</v>
       </c>
       <c r="D598" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E598" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F598" s="1" t="s">
         <v>9</v>
@@ -16716,10 +16710,10 @@
         <v>3</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E599" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F599" s="1" t="s">
         <v>5</v>
@@ -16736,10 +16730,10 @@
         <v>3</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E600" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F600" s="1" t="s">
         <v>5</v>
@@ -16756,10 +16750,10 @@
         <v>3</v>
       </c>
       <c r="D601" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E601" s="1" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="F601" s="1" t="s">
         <v>5</v>
@@ -16776,10 +16770,10 @@
         <v>3</v>
       </c>
       <c r="D602" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E602" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F602" s="1" t="s">
         <v>5</v>
@@ -16796,30 +16790,30 @@
         <v>3</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>1227</v>
+        <v>1260</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="F603" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D604" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="B604" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C604" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D604" s="1" t="s">
-        <v>1262</v>
-      </c>
       <c r="E604" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F604" s="1" t="s">
         <v>35</v>
@@ -16836,13 +16830,13 @@
         <v>3</v>
       </c>
       <c r="D605" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E605" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F605" s="1" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
@@ -16856,13 +16850,13 @@
         <v>3</v>
       </c>
       <c r="D606" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E606" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F606" s="1" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
@@ -16876,10 +16870,10 @@
         <v>3</v>
       </c>
       <c r="D607" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F607" s="1" t="s">
         <v>5</v>
@@ -16896,10 +16890,10 @@
         <v>3</v>
       </c>
       <c r="D608" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E608" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F608" s="1" t="s">
         <v>5</v>
@@ -16916,10 +16910,10 @@
         <v>3</v>
       </c>
       <c r="D609" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F609" s="1" t="s">
         <v>5</v>
@@ -16936,10 +16930,10 @@
         <v>3</v>
       </c>
       <c r="D610" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E610" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F610" s="1" t="s">
         <v>5</v>
@@ -16956,10 +16950,10 @@
         <v>3</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E611" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F611" s="1" t="s">
         <v>5</v>
@@ -16976,10 +16970,10 @@
         <v>3</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F612" s="1" t="s">
         <v>5</v>
@@ -16996,10 +16990,10 @@
         <v>3</v>
       </c>
       <c r="D613" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E613" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F613" s="1" t="s">
         <v>5</v>
@@ -17016,10 +17010,10 @@
         <v>3</v>
       </c>
       <c r="D614" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E614" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F614" s="1" t="s">
         <v>5</v>
@@ -17036,10 +17030,10 @@
         <v>3</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E615" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F615" s="1" t="s">
         <v>5</v>
@@ -17056,13 +17050,13 @@
         <v>3</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E616" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F616" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
@@ -17076,13 +17070,13 @@
         <v>3</v>
       </c>
       <c r="D617" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E617" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F617" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
@@ -17096,10 +17090,10 @@
         <v>3</v>
       </c>
       <c r="D618" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E618" s="1" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="F618" s="1" t="s">
         <v>5</v>
@@ -17116,33 +17110,33 @@
         <v>3</v>
       </c>
       <c r="D619" s="1" t="s">
-        <v>1262</v>
+        <v>1293</v>
       </c>
       <c r="E619" s="1" t="s">
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="F619" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D620" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="B620" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C620" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D620" s="1" t="s">
-        <v>1295</v>
-      </c>
       <c r="E620" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F620" s="1" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
@@ -17156,13 +17150,13 @@
         <v>3</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E621" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F621" s="1" t="s">
-        <v>195</v>
+        <v>35</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
@@ -17176,13 +17170,13 @@
         <v>3</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E622" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F622" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
@@ -17196,10 +17190,10 @@
         <v>3</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E623" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F623" s="1" t="s">
         <v>5</v>
@@ -17216,10 +17210,10 @@
         <v>3</v>
       </c>
       <c r="D624" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E624" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F624" s="1" t="s">
         <v>5</v>
@@ -17236,13 +17230,13 @@
         <v>3</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E625" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F625" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
@@ -17256,10 +17250,10 @@
         <v>3</v>
       </c>
       <c r="D626" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E626" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F626" s="1" t="s">
         <v>35</v>
@@ -17276,13 +17270,13 @@
         <v>3</v>
       </c>
       <c r="D627" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E627" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F627" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
@@ -17296,10 +17290,10 @@
         <v>3</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F628" s="1" t="s">
         <v>5</v>
@@ -17316,13 +17310,13 @@
         <v>3</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F629" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
@@ -17336,13 +17330,13 @@
         <v>3</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F630" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
@@ -17356,10 +17350,10 @@
         <v>3</v>
       </c>
       <c r="D631" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E631" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F631" s="1" t="s">
         <v>35</v>
@@ -17376,10 +17370,10 @@
         <v>3</v>
       </c>
       <c r="D632" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E632" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F632" s="1" t="s">
         <v>35</v>
@@ -17396,10 +17390,10 @@
         <v>3</v>
       </c>
       <c r="D633" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E633" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F633" s="1" t="s">
         <v>35</v>
@@ -17416,13 +17410,13 @@
         <v>3</v>
       </c>
       <c r="D634" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E634" s="1" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="F634" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
@@ -17436,13 +17430,13 @@
         <v>3</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F635" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
@@ -17456,33 +17450,33 @@
         <v>3</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>1295</v>
+        <v>1328</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="F636" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D637" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="B637" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C637" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D637" s="1" t="s">
-        <v>1330</v>
-      </c>
       <c r="E637" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F637" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
@@ -17496,10 +17490,10 @@
         <v>3</v>
       </c>
       <c r="D638" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F638" s="1" t="s">
         <v>5</v>
@@ -17510,16 +17504,16 @@
         <v>1333</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C639" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D639" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E639" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F639" s="1" t="s">
         <v>5</v>
@@ -17527,22 +17521,22 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B640" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="B640" s="1" t="s">
-        <v>1334</v>
-      </c>
       <c r="C640" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D640" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E640" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F640" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
@@ -17556,13 +17550,13 @@
         <v>3</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E641" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F641" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
@@ -17576,13 +17570,13 @@
         <v>3</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>195</v>
+        <v>13</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
@@ -17596,10 +17590,10 @@
         <v>3</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E643" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F643" s="1" t="s">
         <v>13</v>
@@ -17616,10 +17610,10 @@
         <v>3</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E644" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F644" s="1" t="s">
         <v>13</v>
@@ -17636,10 +17630,10 @@
         <v>3</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E645" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F645" s="1" t="s">
         <v>13</v>
@@ -17656,10 +17650,10 @@
         <v>3</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E646" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F646" s="1" t="s">
         <v>13</v>
@@ -17676,10 +17670,10 @@
         <v>3</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F647" s="1" t="s">
         <v>13</v>
@@ -17696,13 +17690,13 @@
         <v>3</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F648" s="1" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
@@ -17716,13 +17710,13 @@
         <v>3</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F649" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
@@ -17736,13 +17730,13 @@
         <v>3</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E650" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F650" s="1" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
@@ -17756,10 +17750,10 @@
         <v>3</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E651" s="1" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="F651" s="1" t="s">
         <v>9</v>
@@ -17776,10 +17770,10 @@
         <v>3</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E652" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F652" s="1" t="s">
         <v>9</v>
@@ -17796,10 +17790,10 @@
         <v>3</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E653" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F653" s="1" t="s">
         <v>9</v>
@@ -17816,10 +17810,10 @@
         <v>3</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>1330</v>
+        <v>1364</v>
       </c>
       <c r="E654" s="1" t="s">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="F654" s="1" t="s">
         <v>9</v>
@@ -17827,19 +17821,19 @@
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D655" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="B655" s="1" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C655" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D655" s="1" t="s">
-        <v>1366</v>
-      </c>
       <c r="E655" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F655" s="1" t="s">
         <v>9</v>
@@ -17856,10 +17850,10 @@
         <v>3</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E656" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F656" s="1" t="s">
         <v>9</v>
@@ -17876,10 +17870,10 @@
         <v>3</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E657" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F657" s="1" t="s">
         <v>9</v>
@@ -17896,13 +17890,13 @@
         <v>3</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E658" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F658" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.25">
@@ -17916,13 +17910,13 @@
         <v>3</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E659" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F659" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
@@ -17936,13 +17930,13 @@
         <v>3</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E660" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F660" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
@@ -17956,13 +17950,13 @@
         <v>3</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E661" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F661" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
@@ -17976,13 +17970,13 @@
         <v>3</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E662" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F662" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
@@ -17996,13 +17990,13 @@
         <v>3</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E663" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F663" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.25">
@@ -18016,10 +18010,10 @@
         <v>3</v>
       </c>
       <c r="D664" s="1" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E664" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F664" s="1" t="s">
         <v>13</v>
@@ -18036,10 +18030,10 @@
         <v>3</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E665" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F665" s="1" t="s">
         <v>13</v>
@@ -18056,10 +18050,10 @@
         <v>3</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E666" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F666" s="1" t="s">
         <v>13</v>
@@ -18076,33 +18070,33 @@
         <v>3</v>
       </c>
       <c r="D667" s="1" t="s">
-        <v>1366</v>
+        <v>1391</v>
       </c>
       <c r="E667" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F667" s="1" t="s">
-        <v>13</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D668" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="B668" s="1" t="s">
+      <c r="E668" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F668" s="1" t="s">
         <v>1392</v>
-      </c>
-      <c r="C668" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D668" s="1" t="s">
-        <v>1393</v>
-      </c>
-      <c r="E668" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F668" s="1" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.25">
@@ -18116,13 +18110,13 @@
         <v>3</v>
       </c>
       <c r="D669" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E669" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F669" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.25">
@@ -18136,13 +18130,13 @@
         <v>3</v>
       </c>
       <c r="D670" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E670" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F670" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.25">
@@ -18156,13 +18150,13 @@
         <v>3</v>
       </c>
       <c r="D671" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E671" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F671" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.25">
@@ -18176,13 +18170,13 @@
         <v>3</v>
       </c>
       <c r="D672" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E672" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F672" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
@@ -18196,13 +18190,13 @@
         <v>3</v>
       </c>
       <c r="D673" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E673" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F673" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
@@ -18216,13 +18210,13 @@
         <v>3</v>
       </c>
       <c r="D674" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E674" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F674" s="1" t="s">
-        <v>1394</v>
+        <v>236</v>
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
@@ -18236,13 +18230,13 @@
         <v>3</v>
       </c>
       <c r="D675" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E675" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F675" s="1" t="s">
-        <v>238</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.25">
@@ -18256,13 +18250,13 @@
         <v>3</v>
       </c>
       <c r="D676" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E676" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F676" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.25">
@@ -18276,13 +18270,13 @@
         <v>3</v>
       </c>
       <c r="D677" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E677" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F677" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
@@ -18296,13 +18290,13 @@
         <v>3</v>
       </c>
       <c r="D678" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E678" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F678" s="1" t="s">
-        <v>1394</v>
+        <v>236</v>
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
@@ -18316,13 +18310,13 @@
         <v>3</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E679" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F679" s="1" t="s">
-        <v>238</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.25">
@@ -18336,30 +18330,30 @@
         <v>3</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>1393</v>
+        <v>1419</v>
       </c>
       <c r="E680" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F680" s="1" t="s">
-        <v>1394</v>
+        <v>5</v>
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D681" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="B681" s="1" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C681" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D681" s="1" t="s">
-        <v>1421</v>
-      </c>
       <c r="E681" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F681" s="1" t="s">
         <v>5</v>
@@ -18376,10 +18370,10 @@
         <v>3</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="E682" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F682" s="1" t="s">
         <v>5</v>
@@ -18396,13 +18390,13 @@
         <v>3</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="E683" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F683" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
@@ -18416,10 +18410,10 @@
         <v>3</v>
       </c>
       <c r="D684" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="E684" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F684" s="1" t="s">
         <v>9</v>
@@ -18436,13 +18430,13 @@
         <v>3</v>
       </c>
       <c r="D685" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="E685" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F685" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.25">
@@ -18456,13 +18450,13 @@
         <v>3</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="E686" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F686" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.25">
@@ -18476,13 +18470,13 @@
         <v>3</v>
       </c>
       <c r="D687" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="E687" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F687" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
@@ -18496,10 +18490,10 @@
         <v>3</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="E688" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F688" s="1" t="s">
         <v>5</v>
@@ -18516,13 +18510,13 @@
         <v>3</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="E689" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F689" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.25">
@@ -18536,10 +18530,10 @@
         <v>3</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="E690" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F690" s="1" t="s">
         <v>9</v>
@@ -18556,32 +18550,12 @@
         <v>3</v>
       </c>
       <c r="D691" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="E691" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F691" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A692" s="1" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B692" s="1" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C692" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D692" s="1" t="s">
-        <v>1421</v>
-      </c>
-      <c r="E692" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F692" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/PCE06D.xlsx
+++ b/PCE06D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4164" uniqueCount="1449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4158" uniqueCount="1447">
   <si>
     <t/>
   </si>
@@ -4345,19 +4345,13 @@
     <t>GATSBY BALM CREAM 70</t>
   </si>
   <si>
-    <t>20116987</t>
-  </si>
-  <si>
-    <t>GIV HIJAB TIN&amp;ZTN400</t>
+    <t>20040847</t>
+  </si>
+  <si>
+    <t>NVEA SHN+PRFY FM 100</t>
   </si>
   <si>
     <t>998</t>
-  </si>
-  <si>
-    <t>20040847</t>
-  </si>
-  <si>
-    <t>NVEA SHN+PRFY FM 100</t>
   </si>
 </sst>
 </file>
@@ -4750,7 +4744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F694"/>
+  <dimension ref="A1:F693"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -13675,7 +13669,7 @@
         <v>932</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F446" s="1" t="s">
         <v>5</v>
@@ -13695,7 +13689,7 @@
         <v>932</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F447" s="1" t="s">
         <v>5</v>
@@ -13715,7 +13709,7 @@
         <v>932</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F448" s="1" t="s">
         <v>35</v>
@@ -13735,7 +13729,7 @@
         <v>932</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F449" s="1" t="s">
         <v>193</v>
@@ -13755,7 +13749,7 @@
         <v>932</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F450" s="1" t="s">
         <v>168</v>
@@ -13775,7 +13769,7 @@
         <v>932</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F451" s="1" t="s">
         <v>13</v>
@@ -13795,7 +13789,7 @@
         <v>932</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F452" s="1" t="s">
         <v>5</v>
@@ -13815,7 +13809,7 @@
         <v>932</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F453" s="1" t="s">
         <v>35</v>
@@ -13835,7 +13829,7 @@
         <v>932</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F454" s="1" t="s">
         <v>35</v>
@@ -13855,7 +13849,7 @@
         <v>932</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F455" s="1" t="s">
         <v>35</v>
@@ -13875,7 +13869,7 @@
         <v>932</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F456" s="1" t="s">
         <v>9</v>
@@ -13895,7 +13889,7 @@
         <v>932</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="F457" s="1" t="s">
         <v>5</v>
@@ -18615,29 +18609,9 @@
         <v>1446</v>
       </c>
       <c r="E693" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F693" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A694" s="1" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B694" s="1" t="s">
-        <v>1448</v>
-      </c>
-      <c r="C694" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D694" s="1" t="s">
-        <v>1446</v>
-      </c>
-      <c r="E694" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F694" s="1" t="s">
         <v>193</v>
       </c>
     </row>
